--- a/BalanceSheet/CLX_bal.xlsx
+++ b/BalanceSheet/CLX_bal.xlsx
@@ -507,19 +507,19 @@
         <v>688000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-70000000.0</v>
+        <v>609000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-70000000.0</v>
+        <v>534000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>454000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>53000000.0</v>
+        <v>457000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>-9000000.0</v>
+        <v>514000000.0</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>504000000.0</v>
@@ -1883,19 +1883,19 @@
         <v>1445000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>3000000.0</v>
+        <v>1373000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>20000000.0</v>
+        <v>1391000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>238000000.0</v>
+        <v>1322000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>133000000.0</v>
+        <v>1083000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>2000000.0</v>
+        <v>942000000.0</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>941000000.0</v>
@@ -2952,19 +2952,19 @@
         <v>77000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>21000000.0</v>
+        <v>128000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>20000000.0</v>
+        <v>104000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-7000000.0</v>
+        <v>62000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>-7000000.0</v>
+        <v>66000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>5000000.0</v>
+        <v>76000000.0</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>68000000.0</v>
@@ -4345,10 +4345,8 @@
           <t>Shares (Common)</t>
         </is>
       </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B32" s="0" t="n">
+        <v>124360000.0</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>125724000.0</v>
@@ -4601,10 +4599,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B34" s="0" t="n">
+        <v>2291000000.0</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>2425000000.0</v>
@@ -4730,10 +4726,8 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B35" s="0" t="n">
+        <v>2783000000.0</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>3157000000.0</v>
